--- a/medicine/Enfance/L'Ombre_Jaune/L'Ombre_Jaune.xlsx
+++ b/medicine/Enfance/L'Ombre_Jaune/L'Ombre_Jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Ombre_Jaune</t>
+          <t>L'Ombre_Jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Ombre Jaune est le nom du 35e roman de la série Bob Morane écrit par Henri Vernes et publié en 1959 par les éditions Gérard et Cie dans la collection Marabout Junior (n°150).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Ombre_Jaune</t>
+          <t>L'Ombre_Jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob Morane recherche un mystérieux criminel surnommé L'Ombre Jaune et finit par découvrir qu'il s'agit de monsieur Ming, qu'il connaît déjà depuis La Couronne de Golconde.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Ombre_Jaune</t>
+          <t>L'Ombre_Jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bob Morane
 Bill Ballantine : ami de Bob Morane et son compagnon d'aventure depuis les débuts.
